--- a/output/1Y_P2_1VAL-D.xlsx
+++ b/output/1Y_P2_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>7.622</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1311.9916</v>
       </c>
-      <c r="G2" s="1">
-        <v>1311.9916</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.045099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>7.622</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.045099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>8.533200000000001</v>
       </c>
+      <c r="E3" s="1">
+        <v>1311.9916</v>
+      </c>
       <c r="F3" s="1">
         <v>1171.8933</v>
       </c>
-      <c r="G3" s="1">
-        <v>2483.8849</v>
-      </c>
       <c r="H3" s="1">
-        <v>21085.4506</v>
+        <v>11137.3655</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.0519</v>
+        <v>11137.3655</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>7.622</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21085.4506</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.057</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>9.073499999999999</v>
       </c>
+      <c r="E4" s="1">
+        <v>2483.8849</v>
+      </c>
       <c r="F4" s="1">
         <v>1102.1105</v>
       </c>
-      <c r="G4" s="1">
-        <v>3585.9955</v>
-      </c>
       <c r="H4" s="1">
-        <v>32368.6294</v>
+        <v>22420.5388</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>8.3659</v>
+        <v>22420.5388</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.0519</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32368.6294</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0413</v>
+        <v>0.0607</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>9.379</v>
       </c>
+      <c r="E5" s="1">
+        <v>3585.9955</v>
+      </c>
       <c r="F5" s="1">
         <v>1066.2117</v>
       </c>
-      <c r="G5" s="1">
-        <v>4652.2072</v>
-      </c>
       <c r="H5" s="1">
-        <v>43406.4889</v>
+        <v>33458.4134</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>8.598100000000001</v>
+        <v>33458.4134</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.3659</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43406.4889</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0245</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>9.661099999999999</v>
       </c>
+      <c r="E6" s="1">
+        <v>4652.2072</v>
+      </c>
       <c r="F6" s="1">
         <v>1035.0788</v>
       </c>
-      <c r="G6" s="1">
-        <v>5687.286</v>
-      </c>
       <c r="H6" s="1">
-        <v>54659.9373</v>
+        <v>44711.8982</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>8.791499999999999</v>
+        <v>44711.8982</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.598100000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54659.9373</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0235</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>10.7352</v>
       </c>
+      <c r="E7" s="1">
+        <v>5687.286</v>
+      </c>
       <c r="F7" s="1">
         <v>931.515</v>
       </c>
-      <c r="G7" s="1">
-        <v>6618.801</v>
-      </c>
       <c r="H7" s="1">
-        <v>70685.4857</v>
+        <v>60737.3711</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>9.065099999999999</v>
+        <v>60737.3711</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>8.791499999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>70685.4857</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.09320000000000001</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E8" s="1">
+        <v>6618.801</v>
+      </c>
       <c r="F8" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G8" s="1">
-        <v>7591.7246</v>
-      </c>
       <c r="H8" s="1">
-        <v>77625.3838</v>
+        <v>67677.24069999999</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>9.220599999999999</v>
+        <v>67677.24069999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.065099999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77625.3838</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0379</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E9" s="1">
+        <v>7591.7246</v>
+      </c>
       <c r="F9" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G9" s="1">
-        <v>8611.3524</v>
-      </c>
       <c r="H9" s="1">
-        <v>84017.52099999999</v>
+        <v>74069.42</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>9.290100000000001</v>
+        <v>74069.42</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.220599999999999</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>3416.2761</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-6583.7239</v>
+        <v>2978.4605</v>
       </c>
       <c r="O9" s="1">
-        <v>3416.2761</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87433.79700000001</v>
+        <v>-7021.5395</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0022</v>
+        <v>-0.0464</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E10" s="1">
+        <v>8611.3524</v>
+      </c>
       <c r="F10" s="1">
-        <v>1039.0746</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9650.427</v>
+        <v>1028.5964</v>
       </c>
       <c r="H10" s="1">
-        <v>100284.3421</v>
+        <v>89486.5909</v>
       </c>
       <c r="I10" s="1">
-        <v>90854.069</v>
+        <v>2978.4605</v>
       </c>
       <c r="J10" s="1">
-        <v>9.4145</v>
+        <v>92465.0514</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80744.6151</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.3765</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10854.069</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2562.207</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102846.5491</v>
+        <v>-10744.6151</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0556</v>
+        <v>0.0999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E11" s="1">
+        <v>9639.9488</v>
+      </c>
       <c r="F11" s="1">
-        <v>1119.1146</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10769.5416</v>
+        <v>1107.8293</v>
       </c>
       <c r="H11" s="1">
-        <v>103908.8453</v>
+        <v>93010.0821</v>
       </c>
       <c r="I11" s="1">
-        <v>101708.138</v>
+        <v>2233.8454</v>
       </c>
       <c r="J11" s="1">
-        <v>9.444100000000001</v>
+        <v>95243.92750000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91489.23020000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.490600000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10854.069</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1708.138</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105616.9834</v>
+        <v>-10744.6151</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0641</v>
+        <v>-0.07049999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E12" s="1">
+        <v>10747.7781</v>
+      </c>
       <c r="F12" s="1">
-        <v>1078.3116</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11847.8532</v>
+        <v>1067.4378</v>
       </c>
       <c r="H12" s="1">
-        <v>118638.4783</v>
+        <v>107622.8765</v>
       </c>
       <c r="I12" s="1">
-        <v>112562.207</v>
+        <v>1489.2302</v>
       </c>
       <c r="J12" s="1">
-        <v>9.5006</v>
+        <v>109112.1067</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102233.8454</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.5121</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10854.069</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>854.069</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119492.5473</v>
+        <v>-10744.6151</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0335</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E13" s="1">
+        <v>11815.2159</v>
+      </c>
       <c r="F13" s="1">
-        <v>961.8309</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12809.6841</v>
+        <v>952.1316</v>
       </c>
       <c r="H13" s="1">
-        <v>143805.3566</v>
+        <v>132641.1585</v>
       </c>
       <c r="I13" s="1">
-        <v>123416.2761</v>
+        <v>744.6151</v>
       </c>
       <c r="J13" s="1">
-        <v>9.634600000000001</v>
+        <v>133385.7736</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112978.4605</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.562099999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10854.069</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>143805.3566</v>
+        <v>-10744.6151</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1105</v>
+        <v>0.1198</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E14" s="1">
+        <v>12767.3476</v>
+      </c>
       <c r="F14" s="1">
-        <v>-12809.6841</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-11815.2159</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>141416.2485</v>
       </c>
       <c r="I14" s="1">
-        <v>123416.2761</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>9.634600000000001</v>
+        <v>141416.2485</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112978.4605</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.849</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>141885.185</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>141885.185</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>141885.185</v>
+        <v>130870.0576</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0775</v>
+        <v>-0.0137</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>7.622</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1311.9916</v>
       </c>
       <c r="G2" s="1">
-        <v>1311.9916</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.045099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>7.622</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.045099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1311.9916</v>
       </c>
       <c r="F3" s="1">
         <v>1044.0263</v>
       </c>
       <c r="G3" s="1">
-        <v>2356.0179</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>11137.3655</v>
       </c>
       <c r="I3" s="1">
-        <v>18908.8848</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.0258</v>
+        <v>11137.3655</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8908.8848</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>6.7904</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8908.8848</v>
       </c>
-      <c r="O3" s="1">
-        <v>1091.1152</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21091.1152</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0573</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>2356.0179</v>
       </c>
       <c r="F4" s="1">
         <v>967.5663</v>
       </c>
       <c r="G4" s="1">
-        <v>3323.5842</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21266.3596</v>
       </c>
       <c r="I4" s="1">
-        <v>27688.0976</v>
+        <v>1091.1152</v>
       </c>
       <c r="J4" s="1">
-        <v>8.3308</v>
+        <v>22357.4748</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17688.0976</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>7.5076</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8779.212799999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>2311.9024</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32311.9024</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0393</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>9.379</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>3323.5842</v>
       </c>
       <c r="F5" s="1">
         <v>963.5234</v>
       </c>
       <c r="G5" s="1">
-        <v>4287.1076</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31010.0372</v>
       </c>
       <c r="I5" s="1">
-        <v>36724.984</v>
+        <v>2311.9024</v>
       </c>
       <c r="J5" s="1">
-        <v>8.5664</v>
+        <v>33321.9396</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26724.984</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.041</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9036.886399999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>3275.016</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43275.016</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0228</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>4287.1076</v>
       </c>
       <c r="F6" s="1">
         <v>915.3188</v>
       </c>
       <c r="G6" s="1">
-        <v>5202.4264</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41202.9624</v>
       </c>
       <c r="I6" s="1">
-        <v>45567.9706</v>
+        <v>3275.016</v>
       </c>
       <c r="J6" s="1">
-        <v>8.759</v>
+        <v>44477.9784</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35567.9706</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.2965</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8842.9866</v>
       </c>
-      <c r="O6" s="1">
-        <v>4432.0294</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54432.0294</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0217</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>10.7352</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>5202.4264</v>
       </c>
       <c r="F7" s="1">
         <v>415.8141</v>
       </c>
       <c r="G7" s="1">
-        <v>5618.2406</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>55559.3129</v>
       </c>
       <c r="I7" s="1">
-        <v>50031.8186</v>
+        <v>4432.0294</v>
       </c>
       <c r="J7" s="1">
-        <v>8.905200000000001</v>
+        <v>59991.3423</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>40031.8186</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.6948</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-4463.848</v>
       </c>
-      <c r="O7" s="1">
-        <v>9968.181399999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>69968.1814</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0859</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>10.2783</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>5618.2406</v>
       </c>
       <c r="F8" s="1">
         <v>1227.7252</v>
       </c>
       <c r="G8" s="1">
-        <v>6845.9658</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>57446.5097</v>
       </c>
       <c r="I8" s="1">
-        <v>62650.7467</v>
+        <v>9968.181399999999</v>
       </c>
       <c r="J8" s="1">
-        <v>9.1515</v>
+        <v>67414.6911</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52650.7467</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.3714</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12618.9281</v>
       </c>
-      <c r="O8" s="1">
-        <v>7349.2533</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77349.2533</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0327</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6845.9658</v>
       </c>
       <c r="F9" s="1">
         <v>1353.612</v>
       </c>
       <c r="G9" s="1">
-        <v>8199.5777</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>66793.3496</v>
       </c>
       <c r="I9" s="1">
-        <v>75926.2959</v>
+        <v>7349.2533</v>
       </c>
       <c r="J9" s="1">
-        <v>9.2598</v>
+        <v>74142.603</v>
       </c>
       <c r="K9" s="1">
+        <v>65926.2959</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.629899999999999</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>3080.6846</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-10194.8646</v>
+        <v>2528.2082</v>
       </c>
       <c r="O9" s="1">
-        <v>7154.3887</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87154.3887</v>
+        <v>-10747.341</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0022</v>
+        <v>-0.0423</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>10.4459</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>8199.5777</v>
       </c>
       <c r="F10" s="1">
         <v>461.1804</v>
       </c>
       <c r="G10" s="1">
-        <v>8660.758099999999</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>85207.5518</v>
       </c>
       <c r="I10" s="1">
-        <v>80743.74000000001</v>
+        <v>6601.9124</v>
       </c>
       <c r="J10" s="1">
-        <v>9.322900000000001</v>
+        <v>91809.4642</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70743.74000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>8.627700000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4817.4442</v>
       </c>
-      <c r="O10" s="1">
-        <v>12336.9445</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102336.9445</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0533</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>9.6988</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>8660.758099999999</v>
       </c>
       <c r="F11" s="1">
         <v>1703.6546</v>
       </c>
       <c r="G11" s="1">
-        <v>10364.4128</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>83562.45849999999</v>
       </c>
       <c r="I11" s="1">
-        <v>97267.14569999999</v>
+        <v>11784.4682</v>
       </c>
       <c r="J11" s="1">
-        <v>9.3847</v>
+        <v>95346.9267</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87267.14569999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.0762</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-16523.4057</v>
       </c>
-      <c r="O11" s="1">
-        <v>5813.5389</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105813.5389</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0581</v>
+        <v>-0.0635</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>10.0658</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>10364.4128</v>
       </c>
       <c r="F12" s="1">
         <v>620.7573</v>
       </c>
       <c r="G12" s="1">
-        <v>10985.17</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103784.0471</v>
       </c>
       <c r="I12" s="1">
-        <v>103515.5643</v>
+        <v>5261.0625</v>
       </c>
       <c r="J12" s="1">
-        <v>9.4232</v>
+        <v>109045.1096</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93515.5643</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.0228</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6248.4185</v>
       </c>
-      <c r="O12" s="1">
-        <v>9565.1203</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119565.1203</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0324</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>11.2848</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>10985.17</v>
       </c>
       <c r="F13" s="1">
         <v>-295.9848</v>
       </c>
       <c r="G13" s="1">
-        <v>10689.1852</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>123322.8142</v>
       </c>
       <c r="I13" s="1">
-        <v>100175.4349</v>
+        <v>9012.644</v>
       </c>
       <c r="J13" s="1">
-        <v>9.371700000000001</v>
+        <v>132335.4582</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>90175.43489999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.2088</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>3322.8142</v>
       </c>
-      <c r="O13" s="1">
-        <v>22887.9345</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142887.9345</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.1028</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>11.1341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10689.1852</v>
       </c>
       <c r="F14" s="1">
         <v>-10689.1852</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118397.6911</v>
       </c>
       <c r="I14" s="1">
-        <v>100175.4349</v>
+        <v>22335.4582</v>
       </c>
       <c r="J14" s="1">
-        <v>9.371700000000001</v>
+        <v>140733.1493</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>90175.43489999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.4361</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>118397.6911</v>
       </c>
-      <c r="O14" s="1">
-        <v>141285.6257</v>
-      </c>
-      <c r="P14" s="1">
-        <v>141285.6257</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0759</v>
+        <v>-0.0113</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>7.622</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1311.9916</v>
       </c>
       <c r="G2" s="1">
-        <v>1311.9916</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.045099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>7.622</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.045099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1311.9916</v>
       </c>
       <c r="F3" s="1">
         <v>1049.9163</v>
       </c>
       <c r="G3" s="1">
-        <v>2361.9079</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>11137.3655</v>
       </c>
       <c r="I3" s="1">
-        <v>18959.1458</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.026999999999999</v>
+        <v>11137.3655</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8959.1458</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>6.8287</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8959.1458</v>
       </c>
-      <c r="O3" s="1">
-        <v>1040.8542</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21090.8542</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0573</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>2361.9079</v>
       </c>
       <c r="F4" s="1">
         <v>978.3219</v>
       </c>
       <c r="G4" s="1">
-        <v>3340.2298</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21319.5255</v>
       </c>
       <c r="I4" s="1">
-        <v>27835.9492</v>
+        <v>1040.8542</v>
       </c>
       <c r="J4" s="1">
-        <v>8.333500000000001</v>
+        <v>22360.3797</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17835.9492</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>7.5515</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8876.8035</v>
       </c>
-      <c r="O4" s="1">
-        <v>2164.0508</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32314.3008</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0394</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>9.379</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>3340.2298</v>
       </c>
       <c r="F5" s="1">
         <v>979.1384</v>
       </c>
       <c r="G5" s="1">
-        <v>4319.3682</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31165.3458</v>
       </c>
       <c r="I5" s="1">
-        <v>37019.2887</v>
+        <v>2164.0508</v>
       </c>
       <c r="J5" s="1">
-        <v>8.570499999999999</v>
+        <v>33329.3966</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27019.2887</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.0891</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9183.3395</v>
       </c>
-      <c r="O5" s="1">
-        <v>2980.7113</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43281.7126</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0229</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>4319.3682</v>
       </c>
       <c r="F6" s="1">
         <v>935.3432</v>
       </c>
       <c r="G6" s="1">
-        <v>5254.7114</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41513.016</v>
       </c>
       <c r="I6" s="1">
-        <v>46055.7332</v>
+        <v>2980.7113</v>
       </c>
       <c r="J6" s="1">
-        <v>8.764699999999999</v>
+        <v>44493.7273</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36055.7332</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.3475</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9036.4445</v>
       </c>
-      <c r="O6" s="1">
-        <v>3944.2668</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54446.773</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0219</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>10.7352</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>5254.7114</v>
       </c>
       <c r="F7" s="1">
         <v>434.2271</v>
       </c>
       <c r="G7" s="1">
-        <v>5688.9385</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>56117.6909</v>
       </c>
       <c r="I7" s="1">
-        <v>50717.2475</v>
+        <v>3944.2668</v>
       </c>
       <c r="J7" s="1">
-        <v>8.915100000000001</v>
+        <v>60061.9577</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>40717.2475</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.7487</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-4661.5143</v>
       </c>
-      <c r="O7" s="1">
-        <v>9282.752500000001</v>
-      </c>
-      <c r="P7" s="1">
-        <v>70037.7712</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0868</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>10.2783</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>5688.9385</v>
       </c>
       <c r="F8" s="1">
         <v>1260.5768</v>
       </c>
       <c r="G8" s="1">
-        <v>6949.5153</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>58169.3962</v>
       </c>
       <c r="I8" s="1">
-        <v>63673.8339</v>
+        <v>9282.752500000001</v>
       </c>
       <c r="J8" s="1">
-        <v>9.1623</v>
+        <v>67452.14870000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53673.8339</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.434799999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12956.5864</v>
       </c>
-      <c r="O8" s="1">
-        <v>6326.1661</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77384.96000000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0331</v>
+        <v>-0.0373</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>6949.5153</v>
       </c>
       <c r="F9" s="1">
         <v>1394.999</v>
       </c>
       <c r="G9" s="1">
-        <v>8344.514300000001</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>67803.6409</v>
       </c>
       <c r="I9" s="1">
-        <v>77355.28630000001</v>
+        <v>6326.1661</v>
       </c>
       <c r="J9" s="1">
-        <v>9.270200000000001</v>
+        <v>74129.807</v>
       </c>
       <c r="K9" s="1">
+        <v>67355.28630000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.6921</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>3127.2819</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-10554.1705</v>
+        <v>2560.0223</v>
       </c>
       <c r="O9" s="1">
-        <v>5771.9956</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87186.0834</v>
+        <v>-11121.4301</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0023</v>
+        <v>-0.0429</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>10.4459</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>8344.514300000001</v>
       </c>
       <c r="F10" s="1">
         <v>491.4951</v>
       </c>
       <c r="G10" s="1">
-        <v>8836.0093</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>86713.68889999999</v>
       </c>
       <c r="I10" s="1">
-        <v>82489.39479999999</v>
+        <v>5204.736</v>
       </c>
       <c r="J10" s="1">
-        <v>9.335599999999999</v>
+        <v>91918.4249</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72489.39479999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>8.687099999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5134.1085</v>
       </c>
-      <c r="O10" s="1">
-        <v>10637.8871</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102459.0454</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0543</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>9.6988</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>8836.0093</v>
       </c>
       <c r="F11" s="1">
         <v>1764.7394</v>
       </c>
       <c r="G11" s="1">
-        <v>10600.7487</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>85253.35249999999</v>
       </c>
       <c r="I11" s="1">
-        <v>99605.24920000001</v>
+        <v>10070.6276</v>
       </c>
       <c r="J11" s="1">
-        <v>9.396100000000001</v>
+        <v>95323.9801</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89605.24920000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.1409</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-17115.8544</v>
       </c>
-      <c r="O11" s="1">
-        <v>3522.0327</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105802.2968</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0592</v>
+        <v>-0.06469999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>10.0658</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>10600.7487</v>
       </c>
       <c r="F12" s="1">
         <v>663.2115</v>
       </c>
       <c r="G12" s="1">
-        <v>11263.9602</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106150.5974</v>
       </c>
       <c r="I12" s="1">
-        <v>106281.0031</v>
+        <v>2954.7732</v>
       </c>
       <c r="J12" s="1">
-        <v>9.435499999999999</v>
+        <v>109105.3706</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96281.0031</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.0825</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6675.7539</v>
       </c>
-      <c r="O12" s="1">
-        <v>6846.2788</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119637.9442</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0331</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>11.2848</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>11263.9602</v>
       </c>
       <c r="F13" s="1">
         <v>-275.8676</v>
       </c>
       <c r="G13" s="1">
-        <v>10988.0926</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>126452.5963</v>
       </c>
       <c r="I13" s="1">
-        <v>103167.8922</v>
+        <v>6279.0192</v>
       </c>
       <c r="J13" s="1">
-        <v>9.389099999999999</v>
+        <v>132731.6156</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>93167.8922</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.2713</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>3096.9726</v>
       </c>
-      <c r="O13" s="1">
-        <v>19943.2514</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143298.8751</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.1054</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>11.1341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10988.0926</v>
       </c>
       <c r="F14" s="1">
         <v>-10988.0926</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121708.5087</v>
       </c>
       <c r="I14" s="1">
-        <v>103167.8922</v>
+        <v>19375.9918</v>
       </c>
       <c r="J14" s="1">
-        <v>9.389099999999999</v>
+        <v>141084.5005</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>93167.8922</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121708.5087</v>
       </c>
-      <c r="O14" s="1">
-        <v>141651.76</v>
-      </c>
-      <c r="P14" s="1">
-        <v>141651.76</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.076</v>
+        <v>-0.0115</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>7.622</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1311.9916</v>
       </c>
       <c r="G2" s="1">
-        <v>1311.9916</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.045099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>7.622</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.045099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1311.9916</v>
       </c>
       <c r="F3" s="1">
         <v>1055.8063</v>
       </c>
       <c r="G3" s="1">
-        <v>2367.7979</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>11137.3655</v>
       </c>
       <c r="I3" s="1">
-        <v>19009.4067</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.0283</v>
+        <v>11137.3655</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9009.4067</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>6.867</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9009.4067</v>
       </c>
-      <c r="O3" s="1">
-        <v>990.5933</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21090.5933</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0573</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>2367.7979</v>
       </c>
       <c r="F4" s="1">
         <v>989.1328</v>
       </c>
       <c r="G4" s="1">
-        <v>3356.9308</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21372.6914</v>
       </c>
       <c r="I4" s="1">
-        <v>27984.3035</v>
+        <v>990.5933</v>
       </c>
       <c r="J4" s="1">
-        <v>8.3363</v>
+        <v>22363.2847</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17984.3035</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>7.5954</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8974.8968</v>
       </c>
-      <c r="O4" s="1">
-        <v>2015.6965</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32316.6965</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0394</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>9.379</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>3356.9308</v>
       </c>
       <c r="F5" s="1">
         <v>994.9132</v>
       </c>
       <c r="G5" s="1">
-        <v>4351.844</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31321.1713</v>
       </c>
       <c r="I5" s="1">
-        <v>37315.5945</v>
+        <v>2015.6965</v>
       </c>
       <c r="J5" s="1">
-        <v>8.5747</v>
+        <v>33336.8678</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27315.5945</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.1371</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9331.290999999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2684.4055</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43288.4155</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.023</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>4351.844</v>
       </c>
       <c r="F6" s="1">
         <v>955.6766</v>
       </c>
       <c r="G6" s="1">
-        <v>5307.5206</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41825.1374</v>
       </c>
       <c r="I6" s="1">
-        <v>46548.4821</v>
+        <v>2684.4055</v>
       </c>
       <c r="J6" s="1">
-        <v>8.770300000000001</v>
+        <v>44509.543</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36548.4821</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.398400000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9232.8876</v>
       </c>
-      <c r="O6" s="1">
-        <v>3451.5179</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54461.568</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.022</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>10.7352</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>5307.5206</v>
       </c>
       <c r="F7" s="1">
         <v>453.0628</v>
       </c>
       <c r="G7" s="1">
-        <v>5760.5834</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>56681.6667</v>
       </c>
       <c r="I7" s="1">
-        <v>51412.2017</v>
+        <v>3451.5179</v>
       </c>
       <c r="J7" s="1">
-        <v>8.924799999999999</v>
+        <v>60133.1845</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>41412.2017</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.8026</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-4863.7195</v>
       </c>
-      <c r="O7" s="1">
-        <v>8587.7983</v>
-      </c>
-      <c r="P7" s="1">
-        <v>70107.9489</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0876</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>10.2783</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>5760.5834</v>
       </c>
       <c r="F8" s="1">
         <v>1294.2187</v>
       </c>
       <c r="G8" s="1">
-        <v>7054.8022</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>58901.9654</v>
       </c>
       <c r="I8" s="1">
-        <v>64714.5702</v>
+        <v>8587.7983</v>
       </c>
       <c r="J8" s="1">
-        <v>9.1731</v>
+        <v>67489.7638</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54714.5702</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.498100000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-13302.3685</v>
       </c>
-      <c r="O8" s="1">
-        <v>5285.4298</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77420.7819</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0335</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>7054.8022</v>
       </c>
       <c r="F9" s="1">
         <v>1437.5728</v>
       </c>
       <c r="G9" s="1">
-        <v>8492.375</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>68830.88280000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78813.5655</v>
+        <v>5285.4298</v>
       </c>
       <c r="J9" s="1">
-        <v>9.2805</v>
+        <v>74116.3126</v>
       </c>
       <c r="K9" s="1">
+        <v>68813.5655</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.754099999999999</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>3174.661</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-10924.3343</v>
+        <v>2592.2625</v>
       </c>
       <c r="O9" s="1">
-        <v>4361.0955</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87217.8011</v>
+        <v>-11506.7328</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0023</v>
+        <v>-0.0435</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>10.4459</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>8492.375</v>
       </c>
       <c r="F10" s="1">
         <v>523.0193</v>
       </c>
       <c r="G10" s="1">
-        <v>9015.3943</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>88250.213</v>
       </c>
       <c r="I10" s="1">
-        <v>84276.97289999999</v>
+        <v>3778.697</v>
       </c>
       <c r="J10" s="1">
-        <v>9.348100000000001</v>
+        <v>92028.91</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74276.97289999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>8.7463</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5463.4074</v>
       </c>
-      <c r="O10" s="1">
-        <v>8897.688099999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102582.9608</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0552</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>9.6988</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>9015.3943</v>
       </c>
       <c r="F11" s="1">
         <v>1828.0746</v>
       </c>
       <c r="G11" s="1">
-        <v>10843.4689</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>86984.13009999999</v>
       </c>
       <c r="I11" s="1">
-        <v>102007.1031</v>
+        <v>8315.289699999999</v>
       </c>
       <c r="J11" s="1">
-        <v>9.4072</v>
+        <v>95299.4198</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92007.10309999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.2056</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-17730.1303</v>
       </c>
-      <c r="O11" s="1">
-        <v>1167.5579</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105789.6833</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0603</v>
+        <v>-0.066</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>10.0658</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>10843.4689</v>
       </c>
       <c r="F12" s="1">
         <v>707.7716</v>
       </c>
       <c r="G12" s="1">
-        <v>11551.2405</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>108581.0759</v>
       </c>
       <c r="I12" s="1">
-        <v>109131.3903</v>
+        <v>585.1594</v>
       </c>
       <c r="J12" s="1">
-        <v>9.4476</v>
+        <v>109166.2353</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99131.3903</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.141999999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7124.2872</v>
       </c>
-      <c r="O12" s="1">
-        <v>4043.2707</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119711.6173</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0339</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>11.2848</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>11551.2405</v>
       </c>
       <c r="F13" s="1">
         <v>-254.1052</v>
       </c>
       <c r="G13" s="1">
-        <v>11297.1353</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>129677.6911</v>
       </c>
       <c r="I13" s="1">
-        <v>106263.8642</v>
+        <v>3460.8722</v>
       </c>
       <c r="J13" s="1">
-        <v>9.4063</v>
+        <v>133138.5634</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>96263.8642</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.333600000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>2852.661</v>
       </c>
-      <c r="O13" s="1">
-        <v>16895.9317</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143720.9618</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.108</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>11.1341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11297.1353</v>
       </c>
       <c r="F14" s="1">
         <v>-11297.1353</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125131.5895</v>
       </c>
       <c r="I14" s="1">
-        <v>106263.8642</v>
+        <v>16313.5332</v>
       </c>
       <c r="J14" s="1">
-        <v>9.4063</v>
+        <v>141445.1228</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>96263.8642</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.521100000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125131.5895</v>
       </c>
-      <c r="O14" s="1">
-        <v>142027.5212</v>
-      </c>
-      <c r="P14" s="1">
-        <v>142027.5212</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0761</v>
+        <v>-0.0118</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>7.622</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1311.9916</v>
       </c>
       <c r="G2" s="1">
-        <v>1311.9916</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.045099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>7.622</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.045099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1311.9916</v>
       </c>
       <c r="F3" s="1">
         <v>1061.6964</v>
       </c>
       <c r="G3" s="1">
-        <v>2373.688</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>11137.3655</v>
       </c>
       <c r="I3" s="1">
-        <v>19059.6676</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.0296</v>
+        <v>11137.3655</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9059.667600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>6.9053</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9059.667600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>940.3324</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21090.3324</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0573</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>2373.688</v>
       </c>
       <c r="F4" s="1">
         <v>999.9992</v>
       </c>
       <c r="G4" s="1">
-        <v>3373.6872</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21425.8573</v>
       </c>
       <c r="I4" s="1">
-        <v>28133.1603</v>
+        <v>940.3324</v>
       </c>
       <c r="J4" s="1">
-        <v>8.339</v>
+        <v>22366.1897</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18133.1603</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>7.6392</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9073.492700000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1866.8397</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32319.0897</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0395</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>9.379</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>3373.6872</v>
       </c>
       <c r="F5" s="1">
         <v>1010.8485</v>
       </c>
       <c r="G5" s="1">
-        <v>4384.5357</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31477.5135</v>
       </c>
       <c r="I5" s="1">
-        <v>37613.9088</v>
+        <v>1866.8397</v>
       </c>
       <c r="J5" s="1">
-        <v>8.578799999999999</v>
+        <v>33344.3532</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27613.9088</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.1851</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9480.7485</v>
       </c>
-      <c r="O5" s="1">
-        <v>2386.0912</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43295.1249</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0231</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>4384.5357</v>
       </c>
       <c r="F6" s="1">
         <v>976.3222</v>
       </c>
       <c r="G6" s="1">
-        <v>5360.8579</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42139.3345</v>
       </c>
       <c r="I6" s="1">
-        <v>47046.255</v>
+        <v>2386.0912</v>
       </c>
       <c r="J6" s="1">
-        <v>8.7759</v>
+        <v>44525.4256</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37046.255</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.449299999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9432.3462</v>
       </c>
-      <c r="O6" s="1">
-        <v>2953.745</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54476.4143</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0222</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>10.7352</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>5360.8579</v>
       </c>
       <c r="F7" s="1">
         <v>472.328</v>
       </c>
       <c r="G7" s="1">
-        <v>5833.1859</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>57251.282</v>
       </c>
       <c r="I7" s="1">
-        <v>52116.7909</v>
+        <v>2953.745</v>
       </c>
       <c r="J7" s="1">
-        <v>8.9345</v>
+        <v>60205.027</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42116.7909</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7.8564</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-5070.536</v>
       </c>
-      <c r="O7" s="1">
-        <v>7883.2091</v>
-      </c>
-      <c r="P7" s="1">
-        <v>70178.7184</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.08840000000000001</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>10.2783</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>5833.1859</v>
       </c>
       <c r="F8" s="1">
         <v>1328.6666</v>
       </c>
       <c r="G8" s="1">
-        <v>7161.8525</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>59644.3263</v>
       </c>
       <c r="I8" s="1">
-        <v>65773.2245</v>
+        <v>7883.2091</v>
       </c>
       <c r="J8" s="1">
-        <v>9.1838</v>
+        <v>67527.5353</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55773.2245</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.561400000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-13656.4336</v>
       </c>
-      <c r="O8" s="1">
-        <v>4226.7755</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77456.71739999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0339</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>7161.8525</v>
       </c>
       <c r="F9" s="1">
         <v>1450.6016</v>
       </c>
       <c r="G9" s="1">
-        <v>8612.454100000001</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84028.27009999999</v>
+        <v>69875.3302</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>4226.7755</v>
       </c>
       <c r="J9" s="1">
-        <v>9.2889</v>
+        <v>74102.1057</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.773999999999999</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>3222.8336</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-11003.9419</v>
+        <v>2624.9337</v>
       </c>
       <c r="O9" s="1">
-        <v>3222.8336</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87251.10370000001</v>
+        <v>-11601.8418</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0024</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>10.4459</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>8612.454100000001</v>
       </c>
       <c r="F10" s="1">
         <v>586.5525</v>
       </c>
       <c r="G10" s="1">
-        <v>9199.006600000001</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>89498.03969999999</v>
       </c>
       <c r="I10" s="1">
-        <v>86127.0684</v>
+        <v>2624.9337</v>
       </c>
       <c r="J10" s="1">
-        <v>9.3626</v>
+        <v>92122.9734</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76127.0684</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>8.8392</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6127.0684</v>
       </c>
-      <c r="O10" s="1">
-        <v>7095.7653</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102689.0822</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0559</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>9.6988</v>
       </c>
       <c r="E11" s="1">
+        <v>9199.006600000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1701.0213</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>1762.6681</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10961.6747</v>
-      </c>
       <c r="H11" s="1">
-        <v>105762.6221</v>
+        <v>88755.69530000001</v>
       </c>
       <c r="I11" s="1">
-        <v>103222.8336</v>
+        <v>6497.8653</v>
       </c>
       <c r="J11" s="1">
-        <v>9.416700000000001</v>
+        <v>95253.5606</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92624.93369999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.069</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-17095.7653</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105762.6221</v>
+        <v>-16497.8653</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0615</v>
+        <v>-0.0673</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>10.0658</v>
       </c>
       <c r="E12" s="1">
+        <v>10900.0279</v>
+      </c>
+      <c r="F12" s="1">
+        <v>947.2408</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>885.5940000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11847.2687</v>
-      </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>109147.4293</v>
       </c>
       <c r="I12" s="1">
-        <v>112137.0456</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>9.465199999999999</v>
+        <v>109147.4293</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102159.67</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.372400000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-8914.212</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1085.788</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119718.413</v>
+        <v>-9534.7363</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0342</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>11.2848</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>11847.2687</v>
       </c>
       <c r="F13" s="1">
         <v>-230.6083</v>
       </c>
       <c r="G13" s="1">
-        <v>11616.6604</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>133000.9924</v>
       </c>
       <c r="I13" s="1">
-        <v>109534.6769</v>
+        <v>465.2637</v>
       </c>
       <c r="J13" s="1">
-        <v>9.4291</v>
+        <v>133466.2561</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99557.30130000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>8.4034</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>2588.8781</v>
       </c>
-      <c r="O13" s="1">
-        <v>13674.6661</v>
-      </c>
-      <c r="P13" s="1">
-        <v>144086.7804</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.1108</v>
+        <v>0.1202</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>11.1341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11616.6604</v>
       </c>
       <c r="F14" s="1">
         <v>-11616.6604</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128670.7769</v>
       </c>
       <c r="I14" s="1">
-        <v>109534.6769</v>
+        <v>13054.1418</v>
       </c>
       <c r="J14" s="1">
-        <v>9.4291</v>
+        <v>141724.9187</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99557.30130000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.5702</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128670.7769</v>
       </c>
-      <c r="O14" s="1">
-        <v>142345.443</v>
-      </c>
-      <c r="P14" s="1">
-        <v>142345.443</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0762</v>
+        <v>-0.0121</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>11.1041</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.634600000000001</v>
+        <v>8.849</v>
       </c>
       <c r="D3" s="1">
-        <v>9.371700000000001</v>
+        <v>8.4361</v>
       </c>
       <c r="E3" s="1">
-        <v>9.389099999999999</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>9.4063</v>
+        <v>8.521100000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>9.4291</v>
+        <v>8.5702</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.4086</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2574</v>
+        <v>0.428</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2466</v>
+        <v>0.4132</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2503</v>
+        <v>0.4171</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2541</v>
+        <v>0.4211</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2573</v>
+        <v>0.4243</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2198</v>
       </c>
       <c r="C5" s="3">
-        <v>0.193</v>
+        <v>0.2241</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1811</v>
+        <v>0.2078</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1835</v>
+        <v>0.2106</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1859</v>
+        <v>0.2134</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1883</v>
+        <v>0.2163</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.7662</v>
       </c>
       <c r="C6" s="4">
-        <v>1.2282</v>
+        <v>1.8192</v>
       </c>
       <c r="D6" s="4">
-        <v>1.2492</v>
+        <v>1.8907</v>
       </c>
       <c r="E6" s="4">
-        <v>1.2534</v>
+        <v>1.8842</v>
       </c>
       <c r="F6" s="4">
-        <v>1.2574</v>
+        <v>1.8776</v>
       </c>
       <c r="G6" s="4">
-        <v>1.2584</v>
+        <v>1.8674</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.357</v>
+        <v>0.173</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3868</v>
+        <v>0.3748</v>
       </c>
       <c r="E7" s="3">
-        <v>0.386</v>
+        <v>0.374</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3853</v>
+        <v>0.3731</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3841</v>
+        <v>0.3717</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3416.2761</v>
+        <v>2978.4605</v>
       </c>
       <c r="D8" s="1">
-        <v>3080.6846</v>
+        <v>2528.2082</v>
       </c>
       <c r="E8" s="1">
-        <v>3127.2819</v>
+        <v>2560.0223</v>
       </c>
       <c r="F8" s="1">
-        <v>3174.661</v>
+        <v>2592.2625</v>
       </c>
       <c r="G8" s="1">
-        <v>3222.8336</v>
+        <v>2624.9337</v>
       </c>
     </row>
   </sheetData>
